--- a/regression/Plots_PM3_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_PM3_2022-06-10/Regression_parameters.xlsx
@@ -3847,61 +3847,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR18" t="n">
-        <v>5.783352564112996</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH18" t="n">
-        <v>5.58602716593464</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4022,61 +3967,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR19" t="n">
-        <v>-233.7342082304185</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>630.3093669146824</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH19" t="n">
-        <v>5.586027165936148</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4197,61 +4087,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR20" t="n">
-        <v>3.788503319361723</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.724071013432479</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0.3839635483444597</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH20" t="n">
-        <v>5.586027168112938</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4372,61 +4207,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR21" t="n">
-        <v>-2.946967127090099</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>10.84946489392132</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH21" t="n">
-        <v>4.408853273085801</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4547,61 +4327,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR22" t="n">
-        <v>93.01684719345383</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>-252.5363369785365</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>-39.70224237143961</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>133.0307909588115</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH22" t="n">
-        <v>4.408853273086853</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4722,61 +4447,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>-3.606246638390165</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0.8653945630198564</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>-0.7160798408922697</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>5.238104889062102</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1.7530381145333</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>3.061691520088713</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH23" t="n">
-        <v>4.408853274921561</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4897,61 +4567,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR24" t="n">
-        <v>4.426402500960585</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>3.570875414056929e-05</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>12.13999141925417</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH24" t="n">
-        <v>3.398447504978658</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5072,61 +4687,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR25" t="n">
-        <v>1.339171047748174</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>8.123499504972362</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0.3103582611623191</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>-0.8166380064057506</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>6.605542949937473</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>14.5561596022272</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH25" t="n">
-        <v>3.398447506292642</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5247,61 +4807,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR26" t="n">
-        <v>1.849159457917846</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1.432517882233374</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1.545470716299359</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>-0.1425213744601336</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0.2051634598624893</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>-0.9580644849937565</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1.909228889796947</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1.811224635710807</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>4.442700493948904</v>
-      </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH26" t="n">
-        <v>3.398447504099753</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5422,61 +4927,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR27" t="n">
-        <v>5.783352564112996</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH27" t="n">
-        <v>5.58602716593464</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5597,61 +5047,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR28" t="n">
-        <v>3.477678355769819</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>2.245451964618199</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB28" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH28" t="n">
-        <v>5.274507514324855</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5772,61 +5167,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR29" t="n">
-        <v>-1.712363761030102</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>5.491843521491602</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0.2995892111803141</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH29" t="n">
-        <v>5.272488756239951</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5947,61 +5287,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR30" t="n">
-        <v>-2.946967127090099</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>10.84946489392132</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB30" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC30" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH30" t="n">
-        <v>4.408853273085801</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6122,61 +5407,6 @@
           <t>19b_FC30_OCR6_DR50</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR31" t="n">
-        <v>-1.537886694530585</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>-0.8765026746587199</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>6.946546039835354</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>3.172553886311345</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB31" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC31" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH31" t="n">
-        <v>4.204823551535518</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6296,61 +5526,6 @@
         <is>
           <t>19b_FC30_OCR6_DR50</t>
         </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR32" t="n">
-        <v>4.426402500960585</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>3.570875414056929e-05</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>12.13999141925417</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB32" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC32" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH32" t="n">
-        <v>3.398447504978658</v>
       </c>
     </row>
     <row r="33">
